--- a/statistics/R/roiHumanBody_Within-PLI_gamma_A/roiHumanBody_Within-PLI_gamma_A.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_gamma_A/roiHumanBody_Within-PLI_gamma_A.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.019626769626769625</v>
+        <v>0.0098133848133848123</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0041847041847041799</v>
+        <v>0.00209235209235209</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.013639147415238501</v>
+        <v>-0.0068195737076192503</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.020559334845049154</v>
+        <v>0.010279667422524577</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.017018613000755883</v>
+        <v>0.0085093065003779417</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0032720690615427872</v>
+        <v>0.0016360345307713936</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.013015700107203321</v>
+        <v>0.0065078500536016604</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0076541727802231785</v>
+        <v>0.0038270863901115892</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.024198568316215419</v>
+        <v>-0.012099284158107709</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.038126361655773433</v>
+        <v>-0.019063180827886717</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>0.01384998443821972</v>
+        <v>0.0069249922191098601</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.019892986434339843</v>
+        <v>0.0099464932171699216</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.00050680933033872555</v>
+        <v>-0.00025340466516936277</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.018492660221983565</v>
+        <v>-0.0092463301109917823</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.024502138537226242</v>
+        <v>-0.012251069268613121</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.021944105277438564</v>
+        <v>-0.010972052638719282</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0067104489619109475</v>
+        <v>0.0033552244809554738</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0011000011000010801</v>
+        <v>-0.00055000055000054004</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.024794181937039084</v>
+        <v>0.012397090968519542</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.0011290150179038561</v>
+        <v>0.00056450750895192803</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>0.032425835831408539</v>
+        <v>0.01621291791570427</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>0.0057519640852974618</v>
+        <v>0.0028759820426487309</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.010513927793339595</v>
+        <v>0.0052569638966697974</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.0027728263022380739</v>
+        <v>0.001386413151119037</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>0.027454194120860809</v>
+        <v>0.013727097060430404</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.014699607441542917</v>
+        <v>0.0073498037207714584</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.059520373806088128</v>
+        <v>0.029760186903044064</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0088183421516754568</v>
+        <v>0.0044091710758377284</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.025364139649853901</v>
+        <v>0.01268206982492695</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.017449989672211869</v>
+        <v>-0.0087249948361059343</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.018846719974539544</v>
+        <v>0.0094233599872697721</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.0168939629723944</v>
+        <v>-0.0084469814861971998</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>0.010209343542676913</v>
+        <v>0.0051046717713384565</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.02399848828420259</v>
+        <v>0.011999244142101295</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>0.017413076341647765</v>
+        <v>0.0087065381708238826</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.054270597127739989</v>
+        <v>-0.027135298563869995</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.0070175217234040299</v>
+        <v>0.003508760861702015</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>0.0044939628272962218</v>
+        <v>0.0022469814136481109</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.03002645502645504</v>
+        <v>0.01501322751322752</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>0.0079817302039524307</v>
+        <v>0.0039908651019762154</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.031966660538089137</v>
+        <v>0.015983330269044568</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.022936875367430914</v>
+        <v>0.011468437683715457</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.0010421677088343628</v>
+        <v>-0.00052108385441718141</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.010135810596640038</v>
+        <v>-0.005067905298320019</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.013326542738307467</v>
+        <v>-0.0066632713691537337</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.024040480389686758</v>
+        <v>-0.012020240194843379</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.030262946929613566</v>
+        <v>0.015131473464806783</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>0.0085785451282527903</v>
+        <v>0.0042892725641263951</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.019012049264150122</v>
+        <v>0.0095060246320750608</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.030284043441938163</v>
+        <v>-0.015142021720969082</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>0.03973361116218263</v>
+        <v>0.019866805581091315</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.0044128762616157668</v>
+        <v>0.0022064381308078834</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>0.0091678980567868884</v>
+        <v>0.0045839490283934442</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>0.012484993997599059</v>
+        <v>0.0062424969987995294</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.035995794329127695</v>
+        <v>0.017997897164563847</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.0057087162350320242</v>
+        <v>0.0028543581175160121</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.018661518661518661</v>
+        <v>-0.0093307593307593306</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.02878235378235372</v>
+        <v>-0.01439117689117686</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.015145502645502629</v>
+        <v>-0.0075727513227513144</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.023679509790620862</v>
+        <v>-0.011839754895310431</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.019177216545637615</v>
+        <v>-0.0095886082728188077</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.03133886905816731</v>
+        <v>0.015669434529083655</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>0.019106861964004851</v>
+        <v>0.0095534309820024255</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.017010780920555357</v>
+        <v>0.0085053904602776786</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>0.038560205226871869</v>
+        <v>0.019280102613435934</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.032220865554198869</v>
+        <v>0.016110432777099434</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.025050161015073291</v>
+        <v>-0.012525080507536646</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.0061579436579436708</v>
+        <v>-0.0030789718289718354</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>0.0089007240323029646</v>
+        <v>0.0044503620161514823</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>-0.0036375661375661339</v>
+        <v>-0.0018187830687830669</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>0.0097962736851626153</v>
+        <v>0.0048981368425813077</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.0047287020971231719</v>
+        <v>-0.002364351048561586</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.012878978751994619</v>
+        <v>-0.0064394893759973093</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>0.0063932980599646916</v>
+        <v>0.0031966490299823458</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>0.0077424363138649255</v>
+        <v>0.0038712181569324627</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.031771267065384717</v>
+        <v>-0.015885633532692359</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.025883025883025879</v>
+        <v>-0.012941512941512939</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.012606220939554297</v>
+        <v>-0.0063031104697771484</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.010449843783177148</v>
+        <v>0.0052249218915885742</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.048073867518311955</v>
+        <v>-0.024036933759155978</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.018522496717985448</v>
+        <v>-0.0092612483589927241</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>0.017116740800951324</v>
+        <v>0.0085583704004756622</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.010039706118137481</v>
+        <v>0.0050198530590687407</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>-0.029515281896234244</v>
+        <v>-0.014757640948117122</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>0.018476810143476824</v>
+        <v>0.009238405071738412</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.008744082428292943</v>
+        <v>0.0043720412141464715</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>0.0015418348751682354</v>
+        <v>0.00077091743758411768</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.0018796992481203145</v>
+        <v>-0.00093984962406015726</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.011684845018178402</v>
+        <v>-0.0058424225090892012</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>0.014481101082408299</v>
+        <v>0.0072405505412041493</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.0028659611992944978</v>
+        <v>-0.0014329805996472489</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.017416557266181326</v>
+        <v>-0.0087082786330906631</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.0077935077935077646</v>
+        <v>-0.0038967538967538823</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-8.6166752833433113e-05</v>
+        <v>-4.3083376416716557e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>0.031674531674531659</v>
+        <v>0.015837265837265829</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>-0.0086852725741614623</v>
+        <v>-0.0043426362870807311</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.016642686964324443</v>
+        <v>-0.0083213434821622217</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>0.012296614552253643</v>
+        <v>0.0061483072761268215</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.020079019262025821</v>
+        <v>0.010039509631012911</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.013273777979660312</v>
+        <v>0.0066368889898301558</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.018088099437305827</v>
+        <v>0.0090440497186529134</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>0.01177038716721257</v>
+        <v>0.0058851935836062852</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>0.007222642143277086</v>
+        <v>0.003611321071638543</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.027371669915529556</v>
+        <v>-0.013685834957764778</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.018192795970573744</v>
+        <v>0.009096397985286872</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>0.016749389814405297</v>
+        <v>0.0083746949072026483</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.011473006711101935</v>
+        <v>-0.0057365033555509676</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.037975763782215427</v>
+        <v>-0.018987881891107714</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>0.018861561718704623</v>
+        <v>0.0094307808593523113</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.0065892960629802266</v>
+        <v>0.0032946480314901133</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.0085639668973002403</v>
+        <v>0.0042819834486501201</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.048263464930131617</v>
+        <v>0.024131732465065808</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.0055623388956722031</v>
+        <v>-0.0027811694478361015</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>0.0046929883064336375</v>
+        <v>0.0023464941532168188</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.055810389143722494</v>
+        <v>-0.027905194571861247</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.015098287028111612</v>
+        <v>-0.0075491435140558061</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.017464350797684103</v>
+        <v>-0.0087321753988420514</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>0.012458139651122149</v>
+        <v>0.0062290698255610746</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>-0.0013401559454191136</v>
+        <v>-0.00067007797270955682</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>0.008140008140008162</v>
+        <v>0.004070004070004081</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.00079911844617726324</v>
+        <v>0.00039955922308863162</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.0093694885361552266</v>
+        <v>-0.0046847442680776133</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.0054763908930575284</v>
+        <v>0.0027381954465287642</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.013141513915507719</v>
+        <v>-0.0065707569577538594</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.010128495842781582</v>
+        <v>0.0050642479213907909</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.013857111079333323</v>
+        <v>-0.0069285555396666615</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0053366858922414551</v>
+        <v>-0.0026683429461207275</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.029396743682457982</v>
+        <v>-0.014698371841228991</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.049922102553681541</v>
+        <v>0.024961051276840771</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.0085745085745085603</v>
+        <v>0.0042872542872542801</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.0077690472427314472</v>
+        <v>0.0038845236213657236</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>0.018382352941176433</v>
+        <v>0.0091911764705882165</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.013227513227513213</v>
+        <v>0.0066137566137566065</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.035981156595191716</v>
+        <v>-0.017990578297595858</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-0.014855514855514895</v>
+        <v>-0.0074277574277574476</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>0.005291005291005263</v>
+        <v>0.0026455026455026315</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.014364615241808223</v>
+        <v>0.0071823076209041117</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>-0.0077776349706174391</v>
+        <v>-0.0038888174853087196</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.0034566586290724344</v>
+        <v>-0.0017283293145362172</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.027670527670527661</v>
+        <v>0.013835263835263831</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.0015275015275015152</v>
+        <v>0.00076375076375075762</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.0081510081510081239</v>
+        <v>0.004075504075504062</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>-0.012309031356650402</v>
+        <v>-0.0061545156783252009</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>-0.011565136565136552</v>
+        <v>-0.0057825682825682762</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>-0.0021504378229524612</v>
+        <v>-0.0010752189114762306</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>0.026389654961083503</v>
+        <v>0.013194827480541751</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>-0.024856407209348369</v>
+        <v>-0.012428203604674185</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.0055177626606198182</v>
+        <v>0.0027588813303099091</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.0056414778637001173</v>
+        <v>0.0028207389318500586</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>0.032286371338658942</v>
+        <v>0.016143185669329471</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>-0.017659890466908024</v>
+        <v>-0.0088299452334540118</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.00026300318697985992</v>
+        <v>-0.00013150159348992996</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.017924046495475021</v>
+        <v>0.0089620232477375106</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.011011011011010985</v>
+        <v>0.0055055055055054924</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.031610364943698288</v>
+        <v>-0.015805182471849144</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>0.0064350064350064268</v>
+        <v>0.0032175032175032134</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.00036533131771226968</v>
+        <v>0.00018266565885613484</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>0.006315070831199851</v>
+        <v>0.0031575354155999255</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>0.0052830608386164046</v>
+        <v>0.0026415304193082023</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0061602418745275722</v>
+        <v>-0.0030801209372637861</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.0086240947992100581</v>
+        <v>0.004312047399605029</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.0082477435418611689</v>
+        <v>-0.0041238717709305844</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.015594541910331342</v>
+        <v>-0.0077972709551656708</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.00092216758883427452</v>
+        <v>0.00046108379441713726</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.01905476905476905</v>
+        <v>-0.0095273845273845248</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>0.00019247465067900871</v>
+        <v>9.6237325339504354e-05</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>-0.027402913117198849</v>
+        <v>-0.013701456558599424</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.0025025025025025294</v>
+        <v>-0.0012512512512512647</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.015808665808665828</v>
+        <v>0.0079043329043329141</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>0.010033247533247525</v>
+        <v>0.0050166237666237623</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.014168930835597532</v>
+        <v>-0.0070844654177987659</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.031138281138281154</v>
+        <v>-0.015569140569140577</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.018518518518518573</v>
+        <v>0.0092592592592592865</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>0.012023301496985717</v>
+        <v>0.0060116507484928583</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/R/roiHumanBody_Within-PLI_gamma_A/roiHumanBody_Within-PLI_gamma_A.xlsx
+++ b/statistics/R/roiHumanBody_Within-PLI_gamma_A/roiHumanBody_Within-PLI_gamma_A.xlsx
@@ -104,7 +104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="0">
-        <v>0.0098133848133848123</v>
+        <v>0.019626769626769625</v>
       </c>
     </row>
     <row r="3">
@@ -118,7 +118,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="0">
-        <v>0.00209235209235209</v>
+        <v>0.0041847041847041799</v>
       </c>
     </row>
     <row r="4">
@@ -132,7 +132,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.0068195737076192503</v>
+        <v>-0.013639147415238501</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +146,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="0">
-        <v>0.010279667422524577</v>
+        <v>0.020559334845049154</v>
       </c>
     </row>
     <row r="6">
@@ -160,7 +160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0085093065003779417</v>
+        <v>0.017018613000755883</v>
       </c>
     </row>
     <row r="7">
@@ -174,7 +174,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0016360345307713936</v>
+        <v>0.0032720690615427872</v>
       </c>
     </row>
     <row r="8">
@@ -188,7 +188,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="0">
-        <v>0.0065078500536016604</v>
+        <v>0.013015700107203321</v>
       </c>
     </row>
     <row r="9">
@@ -202,7 +202,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="0">
-        <v>0.0038270863901115892</v>
+        <v>0.0076541727802231785</v>
       </c>
     </row>
     <row r="10">
@@ -216,7 +216,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="0">
-        <v>-0.012099284158107709</v>
+        <v>-0.024198568316215419</v>
       </c>
     </row>
     <row r="11">
@@ -230,7 +230,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.019063180827886717</v>
+        <v>-0.038126361655773433</v>
       </c>
     </row>
     <row r="12">
@@ -244,7 +244,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="0">
-        <v>0.0069249922191098601</v>
+        <v>0.01384998443821972</v>
       </c>
     </row>
     <row r="13">
@@ -258,7 +258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="0">
-        <v>0.0099464932171699216</v>
+        <v>0.019892986434339843</v>
       </c>
     </row>
     <row r="14">
@@ -272,7 +272,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="0">
-        <v>-0.00025340466516936277</v>
+        <v>-0.00050680933033872555</v>
       </c>
     </row>
     <row r="15">
@@ -286,7 +286,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.0092463301109917823</v>
+        <v>-0.018492660221983565</v>
       </c>
     </row>
     <row r="16">
@@ -300,7 +300,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="0">
-        <v>-0.012251069268613121</v>
+        <v>-0.024502138537226242</v>
       </c>
     </row>
     <row r="17">
@@ -314,7 +314,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.010972052638719282</v>
+        <v>-0.021944105277438564</v>
       </c>
     </row>
     <row r="18">
@@ -328,7 +328,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="0">
-        <v>0.0033552244809554738</v>
+        <v>0.0067104489619109475</v>
       </c>
     </row>
     <row r="19">
@@ -342,7 +342,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.00055000055000054004</v>
+        <v>-0.0011000011000010801</v>
       </c>
     </row>
     <row r="20">
@@ -356,7 +356,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="0">
-        <v>0.012397090968519542</v>
+        <v>0.024794181937039084</v>
       </c>
     </row>
     <row r="21">
@@ -370,7 +370,7 @@
         <v>2</v>
       </c>
       <c r="D21" s="0">
-        <v>0.00056450750895192803</v>
+        <v>0.0011290150179038561</v>
       </c>
     </row>
     <row r="22">
@@ -384,7 +384,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="0">
-        <v>0.01621291791570427</v>
+        <v>0.032425835831408539</v>
       </c>
     </row>
     <row r="23">
@@ -398,7 +398,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="0">
-        <v>0.0028759820426487309</v>
+        <v>0.0057519640852974618</v>
       </c>
     </row>
     <row r="24">
@@ -412,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="0">
-        <v>0.0052569638966697974</v>
+        <v>0.010513927793339595</v>
       </c>
     </row>
     <row r="25">
@@ -426,7 +426,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="0">
-        <v>0.001386413151119037</v>
+        <v>0.0027728263022380739</v>
       </c>
     </row>
     <row r="26">
@@ -440,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="0">
-        <v>0.013727097060430404</v>
+        <v>0.027454194120860809</v>
       </c>
     </row>
     <row r="27">
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0">
-        <v>0.0073498037207714584</v>
+        <v>0.014699607441542917</v>
       </c>
     </row>
     <row r="28">
@@ -468,7 +468,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="0">
-        <v>0.029760186903044064</v>
+        <v>0.059520373806088128</v>
       </c>
     </row>
     <row r="29">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="D29" s="0">
-        <v>0.0044091710758377284</v>
+        <v>0.0088183421516754568</v>
       </c>
     </row>
     <row r="30">
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="D30" s="0">
-        <v>0.01268206982492695</v>
+        <v>0.025364139649853901</v>
       </c>
     </row>
     <row r="31">
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.0087249948361059343</v>
+        <v>-0.017449989672211869</v>
       </c>
     </row>
     <row r="32">
@@ -524,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="D32" s="0">
-        <v>0.0094233599872697721</v>
+        <v>0.018846719974539544</v>
       </c>
     </row>
     <row r="33">
@@ -538,7 +538,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.0084469814861971998</v>
+        <v>-0.0168939629723944</v>
       </c>
     </row>
     <row r="34">
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="0">
-        <v>0.0051046717713384565</v>
+        <v>0.010209343542676913</v>
       </c>
     </row>
     <row r="35">
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
       <c r="D35" s="0">
-        <v>0.011999244142101295</v>
+        <v>0.02399848828420259</v>
       </c>
     </row>
     <row r="36">
@@ -580,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D36" s="0">
-        <v>0.0087065381708238826</v>
+        <v>0.017413076341647765</v>
       </c>
     </row>
     <row r="37">
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.027135298563869995</v>
+        <v>-0.054270597127739989</v>
       </c>
     </row>
     <row r="38">
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="0">
-        <v>0.003508760861702015</v>
+        <v>0.0070175217234040299</v>
       </c>
     </row>
     <row r="39">
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="D39" s="0">
-        <v>0.0022469814136481109</v>
+        <v>0.0044939628272962218</v>
       </c>
     </row>
     <row r="40">
@@ -636,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="0">
-        <v>0.01501322751322752</v>
+        <v>0.03002645502645504</v>
       </c>
     </row>
     <row r="41">
@@ -650,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="0">
-        <v>0.0039908651019762154</v>
+        <v>0.0079817302039524307</v>
       </c>
     </row>
     <row r="42">
@@ -664,7 +664,7 @@
         <v>2</v>
       </c>
       <c r="D42" s="0">
-        <v>0.015983330269044568</v>
+        <v>0.031966660538089137</v>
       </c>
     </row>
     <row r="43">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="0">
-        <v>0.011468437683715457</v>
+        <v>0.022936875367430914</v>
       </c>
     </row>
     <row r="44">
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.00052108385441718141</v>
+        <v>-0.0010421677088343628</v>
       </c>
     </row>
     <row r="45">
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D45" s="0">
-        <v>-0.005067905298320019</v>
+        <v>-0.010135810596640038</v>
       </c>
     </row>
     <row r="46">
@@ -720,7 +720,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.0066632713691537337</v>
+        <v>-0.013326542738307467</v>
       </c>
     </row>
     <row r="47">
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.012020240194843379</v>
+        <v>-0.024040480389686758</v>
       </c>
     </row>
     <row r="48">
@@ -748,7 +748,7 @@
         <v>2</v>
       </c>
       <c r="D48" s="0">
-        <v>0.015131473464806783</v>
+        <v>0.030262946929613566</v>
       </c>
     </row>
     <row r="49">
@@ -762,7 +762,7 @@
         <v>3</v>
       </c>
       <c r="D49" s="0">
-        <v>0.0042892725641263951</v>
+        <v>0.0085785451282527903</v>
       </c>
     </row>
     <row r="50">
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D50" s="0">
-        <v>0.0095060246320750608</v>
+        <v>0.019012049264150122</v>
       </c>
     </row>
     <row r="51">
@@ -790,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.015142021720969082</v>
+        <v>-0.030284043441938163</v>
       </c>
     </row>
     <row r="52">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="D52" s="0">
-        <v>0.019866805581091315</v>
+        <v>0.03973361116218263</v>
       </c>
     </row>
     <row r="53">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="D53" s="0">
-        <v>0.0022064381308078834</v>
+        <v>0.0044128762616157668</v>
       </c>
     </row>
     <row r="54">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="D54" s="0">
-        <v>0.0045839490283934442</v>
+        <v>0.0091678980567868884</v>
       </c>
     </row>
     <row r="55">
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="D55" s="0">
-        <v>0.0062424969987995294</v>
+        <v>0.012484993997599059</v>
       </c>
     </row>
     <row r="56">
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
       <c r="D56" s="0">
-        <v>0.017997897164563847</v>
+        <v>0.035995794329127695</v>
       </c>
     </row>
     <row r="57">
@@ -874,7 +874,7 @@
         <v>2</v>
       </c>
       <c r="D57" s="0">
-        <v>0.0028543581175160121</v>
+        <v>0.0057087162350320242</v>
       </c>
     </row>
     <row r="58">
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D58" s="0">
-        <v>-0.0093307593307593306</v>
+        <v>-0.018661518661518661</v>
       </c>
     </row>
     <row r="59">
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="D59" s="0">
-        <v>-0.01439117689117686</v>
+        <v>-0.02878235378235372</v>
       </c>
     </row>
     <row r="60">
@@ -916,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="0">
-        <v>-0.0075727513227513144</v>
+        <v>-0.015145502645502629</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="D61" s="0">
-        <v>-0.011839754895310431</v>
+        <v>-0.023679509790620862</v>
       </c>
     </row>
     <row r="62">
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="D62" s="0">
-        <v>-0.0095886082728188077</v>
+        <v>-0.019177216545637615</v>
       </c>
     </row>
     <row r="63">
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="D63" s="0">
-        <v>0.015669434529083655</v>
+        <v>0.03133886905816731</v>
       </c>
     </row>
     <row r="64">
@@ -972,7 +972,7 @@
         <v>3</v>
       </c>
       <c r="D64" s="0">
-        <v>0.0095534309820024255</v>
+        <v>0.019106861964004851</v>
       </c>
     </row>
     <row r="65">
@@ -986,7 +986,7 @@
         <v>1</v>
       </c>
       <c r="D65" s="0">
-        <v>0.0085053904602776786</v>
+        <v>0.017010780920555357</v>
       </c>
     </row>
     <row r="66">
@@ -1000,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D66" s="0">
-        <v>0.019280102613435934</v>
+        <v>0.038560205226871869</v>
       </c>
     </row>
     <row r="67">
@@ -1014,7 +1014,7 @@
         <v>3</v>
       </c>
       <c r="D67" s="0">
-        <v>0.016110432777099434</v>
+        <v>0.032220865554198869</v>
       </c>
     </row>
     <row r="68">
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="D68" s="0">
-        <v>-0.012525080507536646</v>
+        <v>-0.025050161015073291</v>
       </c>
     </row>
     <row r="69">
@@ -1042,7 +1042,7 @@
         <v>2</v>
       </c>
       <c r="D69" s="0">
-        <v>-0.0030789718289718354</v>
+        <v>-0.0061579436579436708</v>
       </c>
     </row>
     <row r="70">
@@ -1056,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="0">
-        <v>0.0044503620161514823</v>
+        <v>0.0089007240323029646</v>
       </c>
     </row>
     <row r="71">
@@ -1070,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="D71" s="0">
-        <v>-0.0018187830687830669</v>
+        <v>-0.0036375661375661339</v>
       </c>
     </row>
     <row r="72">
@@ -1084,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="D72" s="0">
-        <v>0.0048981368425813077</v>
+        <v>0.0097962736851626153</v>
       </c>
     </row>
     <row r="73">
@@ -1098,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="0">
-        <v>-0.002364351048561586</v>
+        <v>-0.0047287020971231719</v>
       </c>
     </row>
     <row r="74">
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="D74" s="0">
-        <v>-0.0064394893759973093</v>
+        <v>-0.012878978751994619</v>
       </c>
     </row>
     <row r="75">
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="D75" s="0">
-        <v>0.0031966490299823458</v>
+        <v>0.0063932980599646916</v>
       </c>
     </row>
     <row r="76">
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="D76" s="0">
-        <v>0.0038712181569324627</v>
+        <v>0.0077424363138649255</v>
       </c>
     </row>
     <row r="77">
@@ -1154,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="0">
-        <v>-0.015885633532692359</v>
+        <v>-0.031771267065384717</v>
       </c>
     </row>
     <row r="78">
@@ -1168,7 +1168,7 @@
         <v>2</v>
       </c>
       <c r="D78" s="0">
-        <v>-0.012941512941512939</v>
+        <v>-0.025883025883025879</v>
       </c>
     </row>
     <row r="79">
@@ -1182,7 +1182,7 @@
         <v>3</v>
       </c>
       <c r="D79" s="0">
-        <v>-0.0063031104697771484</v>
+        <v>-0.012606220939554297</v>
       </c>
     </row>
     <row r="80">
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="D80" s="0">
-        <v>0.0052249218915885742</v>
+        <v>0.010449843783177148</v>
       </c>
     </row>
     <row r="81">
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="D81" s="0">
-        <v>-0.024036933759155978</v>
+        <v>-0.048073867518311955</v>
       </c>
     </row>
     <row r="82">
@@ -1224,7 +1224,7 @@
         <v>3</v>
       </c>
       <c r="D82" s="0">
-        <v>-0.0092612483589927241</v>
+        <v>-0.018522496717985448</v>
       </c>
     </row>
     <row r="83">
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="D83" s="0">
-        <v>0.0085583704004756622</v>
+        <v>0.017116740800951324</v>
       </c>
     </row>
     <row r="84">
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="D84" s="0">
-        <v>0.0050198530590687407</v>
+        <v>0.010039706118137481</v>
       </c>
     </row>
     <row r="85">
@@ -1266,7 +1266,7 @@
         <v>3</v>
       </c>
       <c r="D85" s="0">
-        <v>-0.014757640948117122</v>
+        <v>-0.029515281896234244</v>
       </c>
     </row>
     <row r="86">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="D86" s="0">
-        <v>0.009238405071738412</v>
+        <v>0.018476810143476824</v>
       </c>
     </row>
     <row r="87">
@@ -1294,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="D87" s="0">
-        <v>0.0043720412141464715</v>
+        <v>0.008744082428292943</v>
       </c>
     </row>
     <row r="88">
@@ -1308,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="D88" s="0">
-        <v>0.00077091743758411768</v>
+        <v>0.0015418348751682354</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D89" s="0">
-        <v>-0.00093984962406015726</v>
+        <v>-0.0018796992481203145</v>
       </c>
     </row>
     <row r="90">
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
       <c r="D90" s="0">
-        <v>-0.0058424225090892012</v>
+        <v>-0.011684845018178402</v>
       </c>
     </row>
     <row r="91">
@@ -1350,7 +1350,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="0">
-        <v>0.0072405505412041493</v>
+        <v>0.014481101082408299</v>
       </c>
     </row>
     <row r="92">
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="D92" s="0">
-        <v>-0.0014329805996472489</v>
+        <v>-0.0028659611992944978</v>
       </c>
     </row>
     <row r="93">
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="D93" s="0">
-        <v>-0.0087082786330906631</v>
+        <v>-0.017416557266181326</v>
       </c>
     </row>
     <row r="94">
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="0">
-        <v>-0.0038967538967538823</v>
+        <v>-0.0077935077935077646</v>
       </c>
     </row>
     <row r="95">
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
       <c r="D95" s="0">
-        <v>-4.3083376416716557e-05</v>
+        <v>-8.6166752833433113e-05</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>2</v>
       </c>
       <c r="D96" s="0">
-        <v>0.015837265837265829</v>
+        <v>0.031674531674531659</v>
       </c>
     </row>
     <row r="97">
@@ -1434,7 +1434,7 @@
         <v>3</v>
       </c>
       <c r="D97" s="0">
-        <v>-0.0043426362870807311</v>
+        <v>-0.0086852725741614623</v>
       </c>
     </row>
     <row r="98">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="D98" s="0">
-        <v>-0.0083213434821622217</v>
+        <v>-0.016642686964324443</v>
       </c>
     </row>
     <row r="99">
@@ -1462,7 +1462,7 @@
         <v>2</v>
       </c>
       <c r="D99" s="0">
-        <v>0.0061483072761268215</v>
+        <v>0.012296614552253643</v>
       </c>
     </row>
     <row r="100">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="0">
-        <v>0.010039509631012911</v>
+        <v>0.020079019262025821</v>
       </c>
     </row>
     <row r="101">
@@ -1490,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="D101" s="0">
-        <v>0.0066368889898301558</v>
+        <v>0.013273777979660312</v>
       </c>
     </row>
     <row r="102">
@@ -1504,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="0">
-        <v>0.0090440497186529134</v>
+        <v>0.018088099437305827</v>
       </c>
     </row>
     <row r="103">
@@ -1518,7 +1518,7 @@
         <v>3</v>
       </c>
       <c r="D103" s="0">
-        <v>0.0058851935836062852</v>
+        <v>0.01177038716721257</v>
       </c>
     </row>
     <row r="104">
@@ -1532,7 +1532,7 @@
         <v>1</v>
       </c>
       <c r="D104" s="0">
-        <v>0.003611321071638543</v>
+        <v>0.007222642143277086</v>
       </c>
     </row>
     <row r="105">
@@ -1546,7 +1546,7 @@
         <v>2</v>
       </c>
       <c r="D105" s="0">
-        <v>-0.013685834957764778</v>
+        <v>-0.027371669915529556</v>
       </c>
     </row>
     <row r="106">
@@ -1560,7 +1560,7 @@
         <v>3</v>
       </c>
       <c r="D106" s="0">
-        <v>0.009096397985286872</v>
+        <v>0.018192795970573744</v>
       </c>
     </row>
     <row r="107">
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="D107" s="0">
-        <v>0.0083746949072026483</v>
+        <v>0.016749389814405297</v>
       </c>
     </row>
     <row r="108">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="D108" s="0">
-        <v>-0.0057365033555509676</v>
+        <v>-0.011473006711101935</v>
       </c>
     </row>
     <row r="109">
@@ -1602,7 +1602,7 @@
         <v>3</v>
       </c>
       <c r="D109" s="0">
-        <v>-0.018987881891107714</v>
+        <v>-0.037975763782215427</v>
       </c>
     </row>
     <row r="110">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="0">
-        <v>0.0094307808593523113</v>
+        <v>0.018861561718704623</v>
       </c>
     </row>
     <row r="111">
@@ -1630,7 +1630,7 @@
         <v>2</v>
       </c>
       <c r="D111" s="0">
-        <v>0.0032946480314901133</v>
+        <v>0.0065892960629802266</v>
       </c>
     </row>
     <row r="112">
@@ -1644,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="D112" s="0">
-        <v>0.0042819834486501201</v>
+        <v>0.0085639668973002403</v>
       </c>
     </row>
     <row r="113">
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="D113" s="0">
-        <v>0.024131732465065808</v>
+        <v>0.048263464930131617</v>
       </c>
     </row>
     <row r="114">
@@ -1672,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="D114" s="0">
-        <v>-0.0027811694478361015</v>
+        <v>-0.0055623388956722031</v>
       </c>
     </row>
     <row r="115">
@@ -1686,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="D115" s="0">
-        <v>0.0023464941532168188</v>
+        <v>0.0046929883064336375</v>
       </c>
     </row>
     <row r="116">
@@ -1700,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="D116" s="0">
-        <v>-0.027905194571861247</v>
+        <v>-0.055810389143722494</v>
       </c>
     </row>
     <row r="117">
@@ -1714,7 +1714,7 @@
         <v>2</v>
       </c>
       <c r="D117" s="0">
-        <v>-0.0075491435140558061</v>
+        <v>-0.015098287028111612</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>3</v>
       </c>
       <c r="D118" s="0">
-        <v>-0.0087321753988420514</v>
+        <v>-0.017464350797684103</v>
       </c>
     </row>
     <row r="119">
@@ -1742,7 +1742,7 @@
         <v>1</v>
       </c>
       <c r="D119" s="0">
-        <v>0.0062290698255610746</v>
+        <v>0.012458139651122149</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>2</v>
       </c>
       <c r="D120" s="0">
-        <v>-0.00067007797270955682</v>
+        <v>-0.0013401559454191136</v>
       </c>
     </row>
     <row r="121">
@@ -1770,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="D121" s="0">
-        <v>0.004070004070004081</v>
+        <v>0.008140008140008162</v>
       </c>
     </row>
     <row r="122">
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="D122" s="0">
-        <v>0.00039955922308863162</v>
+        <v>0.00079911844617726324</v>
       </c>
     </row>
     <row r="123">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="D123" s="0">
-        <v>-0.0046847442680776133</v>
+        <v>-0.0093694885361552266</v>
       </c>
     </row>
     <row r="124">
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
       <c r="D124" s="0">
-        <v>0.0027381954465287642</v>
+        <v>0.0054763908930575284</v>
       </c>
     </row>
     <row r="125">
@@ -1826,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="D125" s="0">
-        <v>-0.0065707569577538594</v>
+        <v>-0.013141513915507719</v>
       </c>
     </row>
     <row r="126">
@@ -1840,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="0">
-        <v>0.0050642479213907909</v>
+        <v>0.010128495842781582</v>
       </c>
     </row>
     <row r="127">
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
       <c r="D127" s="0">
-        <v>-0.0069285555396666615</v>
+        <v>-0.013857111079333323</v>
       </c>
     </row>
     <row r="128">
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="D128" s="0">
-        <v>-0.0026683429461207275</v>
+        <v>-0.0053366858922414551</v>
       </c>
     </row>
     <row r="129">
@@ -1882,7 +1882,7 @@
         <v>2</v>
       </c>
       <c r="D129" s="0">
-        <v>-0.014698371841228991</v>
+        <v>-0.029396743682457982</v>
       </c>
     </row>
     <row r="130">
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="D130" s="0">
-        <v>0.024961051276840771</v>
+        <v>0.049922102553681541</v>
       </c>
     </row>
     <row r="131">
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D131" s="0">
-        <v>0.0042872542872542801</v>
+        <v>0.0085745085745085603</v>
       </c>
     </row>
     <row r="132">
@@ -1924,7 +1924,7 @@
         <v>2</v>
       </c>
       <c r="D132" s="0">
-        <v>0.0038845236213657236</v>
+        <v>0.0077690472427314472</v>
       </c>
     </row>
     <row r="133">
@@ -1938,7 +1938,7 @@
         <v>3</v>
       </c>
       <c r="D133" s="0">
-        <v>0.0091911764705882165</v>
+        <v>0.018382352941176433</v>
       </c>
     </row>
     <row r="134">
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="D134" s="0">
-        <v>0.0066137566137566065</v>
+        <v>0.013227513227513213</v>
       </c>
     </row>
     <row r="135">
@@ -1966,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="D135" s="0">
-        <v>-0.017990578297595858</v>
+        <v>-0.035981156595191716</v>
       </c>
     </row>
     <row r="136">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="D136" s="0">
-        <v>-0.0074277574277574476</v>
+        <v>-0.014855514855514895</v>
       </c>
     </row>
     <row r="137">
@@ -1994,7 +1994,7 @@
         <v>1</v>
       </c>
       <c r="D137" s="0">
-        <v>0.0026455026455026315</v>
+        <v>0.005291005291005263</v>
       </c>
     </row>
     <row r="138">
@@ -2008,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D138" s="0">
-        <v>0.0071823076209041117</v>
+        <v>0.014364615241808223</v>
       </c>
     </row>
     <row r="139">
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="D139" s="0">
-        <v>-0.0038888174853087196</v>
+        <v>-0.0077776349706174391</v>
       </c>
     </row>
     <row r="140">
@@ -2036,7 +2036,7 @@
         <v>1</v>
       </c>
       <c r="D140" s="0">
-        <v>-0.0017283293145362172</v>
+        <v>-0.0034566586290724344</v>
       </c>
     </row>
     <row r="141">
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="D141" s="0">
-        <v>0.013835263835263831</v>
+        <v>0.027670527670527661</v>
       </c>
     </row>
     <row r="142">
@@ -2064,7 +2064,7 @@
         <v>3</v>
       </c>
       <c r="D142" s="0">
-        <v>0.00076375076375075762</v>
+        <v>0.0015275015275015152</v>
       </c>
     </row>
     <row r="143">
@@ -2078,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="D143" s="0">
-        <v>0.004075504075504062</v>
+        <v>0.0081510081510081239</v>
       </c>
     </row>
     <row r="144">
@@ -2092,7 +2092,7 @@
         <v>2</v>
       </c>
       <c r="D144" s="0">
-        <v>-0.0061545156783252009</v>
+        <v>-0.012309031356650402</v>
       </c>
     </row>
     <row r="145">
@@ -2106,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="D145" s="0">
-        <v>-0.0057825682825682762</v>
+        <v>-0.011565136565136552</v>
       </c>
     </row>
     <row r="146">
@@ -2120,7 +2120,7 @@
         <v>1</v>
       </c>
       <c r="D146" s="0">
-        <v>-0.0010752189114762306</v>
+        <v>-0.0021504378229524612</v>
       </c>
     </row>
     <row r="147">
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="D147" s="0">
-        <v>0.013194827480541751</v>
+        <v>0.026389654961083503</v>
       </c>
     </row>
     <row r="148">
@@ -2148,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="0">
-        <v>-0.012428203604674185</v>
+        <v>-0.024856407209348369</v>
       </c>
     </row>
     <row r="149">
@@ -2162,7 +2162,7 @@
         <v>1</v>
       </c>
       <c r="D149" s="0">
-        <v>0.0027588813303099091</v>
+        <v>0.0055177626606198182</v>
       </c>
     </row>
     <row r="150">
@@ -2176,7 +2176,7 @@
         <v>2</v>
       </c>
       <c r="D150" s="0">
-        <v>0.0028207389318500586</v>
+        <v>0.0056414778637001173</v>
       </c>
     </row>
     <row r="151">
@@ -2190,7 +2190,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="0">
-        <v>0.016143185669329471</v>
+        <v>0.032286371338658942</v>
       </c>
     </row>
     <row r="152">
@@ -2204,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="0">
-        <v>-0.0088299452334540118</v>
+        <v>-0.017659890466908024</v>
       </c>
     </row>
     <row r="153">
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
       <c r="D153" s="0">
-        <v>-0.00013150159348992996</v>
+        <v>-0.00026300318697985992</v>
       </c>
     </row>
     <row r="154">
@@ -2232,7 +2232,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="0">
-        <v>0.0089620232477375106</v>
+        <v>0.017924046495475021</v>
       </c>
     </row>
     <row r="155">
@@ -2246,7 +2246,7 @@
         <v>1</v>
       </c>
       <c r="D155" s="0">
-        <v>0.0055055055055054924</v>
+        <v>0.011011011011010985</v>
       </c>
     </row>
     <row r="156">
@@ -2260,7 +2260,7 @@
         <v>2</v>
       </c>
       <c r="D156" s="0">
-        <v>-0.015805182471849144</v>
+        <v>-0.031610364943698288</v>
       </c>
     </row>
     <row r="157">
@@ -2274,7 +2274,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="0">
-        <v>0.0032175032175032134</v>
+        <v>0.0064350064350064268</v>
       </c>
     </row>
     <row r="158">
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="D158" s="0">
-        <v>0.00018266565885613484</v>
+        <v>0.00036533131771226968</v>
       </c>
     </row>
     <row r="159">
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="D159" s="0">
-        <v>0.0031575354155999255</v>
+        <v>0.006315070831199851</v>
       </c>
     </row>
     <row r="160">
@@ -2316,7 +2316,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="0">
-        <v>0.0026415304193082023</v>
+        <v>0.0052830608386164046</v>
       </c>
     </row>
     <row r="161">
@@ -2330,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="D161" s="0">
-        <v>-0.0030801209372637861</v>
+        <v>-0.0061602418745275722</v>
       </c>
     </row>
     <row r="162">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D162" s="0">
-        <v>0.004312047399605029</v>
+        <v>0.0086240947992100581</v>
       </c>
     </row>
     <row r="163">
@@ -2358,7 +2358,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="0">
-        <v>-0.0041238717709305844</v>
+        <v>-0.0082477435418611689</v>
       </c>
     </row>
     <row r="164">
@@ -2372,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="D164" s="0">
-        <v>-0.0077972709551656708</v>
+        <v>-0.015594541910331342</v>
       </c>
     </row>
     <row r="165">
@@ -2386,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="D165" s="0">
-        <v>0.00046108379441713726</v>
+        <v>0.00092216758883427452</v>
       </c>
     </row>
     <row r="166">
@@ -2400,7 +2400,7 @@
         <v>3</v>
       </c>
       <c r="D166" s="0">
-        <v>-0.0095273845273845248</v>
+        <v>-0.01905476905476905</v>
       </c>
     </row>
     <row r="167">
@@ -2414,7 +2414,7 @@
         <v>1</v>
       </c>
       <c r="D167" s="0">
-        <v>9.6237325339504354e-05</v>
+        <v>0.00019247465067900871</v>
       </c>
     </row>
     <row r="168">
@@ -2428,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D168" s="0">
-        <v>-0.013701456558599424</v>
+        <v>-0.027402913117198849</v>
       </c>
     </row>
     <row r="169">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="D169" s="0">
-        <v>-0.0012512512512512647</v>
+        <v>-0.0025025025025025294</v>
       </c>
     </row>
     <row r="170">
@@ -2456,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="D170" s="0">
-        <v>0.0079043329043329141</v>
+        <v>0.015808665808665828</v>
       </c>
     </row>
     <row r="171">
@@ -2470,7 +2470,7 @@
         <v>2</v>
       </c>
       <c r="D171" s="0">
-        <v>0.0050166237666237623</v>
+        <v>0.010033247533247525</v>
       </c>
     </row>
     <row r="172">
@@ -2484,7 +2484,7 @@
         <v>3</v>
       </c>
       <c r="D172" s="0">
-        <v>-0.0070844654177987659</v>
+        <v>-0.014168930835597532</v>
       </c>
     </row>
     <row r="173">
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
       <c r="D173" s="0">
-        <v>-0.015569140569140577</v>
+        <v>-0.031138281138281154</v>
       </c>
     </row>
     <row r="174">
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="D174" s="0">
-        <v>0.0092592592592592865</v>
+        <v>0.018518518518518573</v>
       </c>
     </row>
     <row r="175">
@@ -2526,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="D175" s="0">
-        <v>0.0060116507484928583</v>
+        <v>0.012023301496985717</v>
       </c>
     </row>
   </sheetData>
